--- a/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/driggs rebuild 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/driggs rebuild 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6833E587-D2FE-5B46-93A2-EEDF562C285C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B97C7-C54F-B648-BFAE-CEFEF1D056F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{5BD8FC81-A424-9C46-A455-54312A2DC2FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="104">
   <si>
     <t>created_at</t>
   </si>
@@ -338,6 +338,27 @@
   </si>
   <si>
     <t>driggs_bl_shortdesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -- Add new address and location fields to sitespren table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ALTER TABLE sitespren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADD COLUMN driggs_state_code TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADD COLUMN driggs_state_full TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADD COLUMN driggs_street1 TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADD COLUMN driggs_street2 TEXT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ADD COLUMN driggs_country TEXT;</t>
   </si>
 </sst>
 </file>
@@ -796,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4EA6E-616F-314C-9012-CF49791DC052}">
-  <dimension ref="E1:O500"/>
+  <dimension ref="E1:Q500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,9 +830,11 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
     <col min="12" max="12" width="0.83203125" style="13" customWidth="1"/>
     <col min="13" max="13" width="37.1640625" customWidth="1"/>
+    <col min="14" max="14" width="36.83203125" customWidth="1"/>
+    <col min="15" max="15" width="0.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
@@ -821,31 +844,46 @@
       <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L2" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L3" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="5:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L5" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -858,8 +896,11 @@
       <c r="L6" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
@@ -878,8 +919,11 @@
       <c r="N7" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>6</v>
       </c>
@@ -892,8 +936,11 @@
       <c r="L8" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -906,8 +953,11 @@
       <c r="L9" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -920,8 +970,11 @@
       <c r="L10" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -940,8 +993,11 @@
       <c r="N11" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>11</v>
       </c>
@@ -960,8 +1016,11 @@
       <c r="N12" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>12</v>
       </c>
@@ -978,8 +1037,11 @@
         <v>64</v>
       </c>
       <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>14</v>
       </c>
@@ -998,8 +1060,11 @@
       <c r="N14" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>15</v>
       </c>
@@ -1016,8 +1081,11 @@
         <v>26</v>
       </c>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1104,11 @@
       <c r="N16" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>18</v>
       </c>
@@ -1054,8 +1125,11 @@
         <v>28</v>
       </c>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>19</v>
       </c>
@@ -1074,8 +1148,11 @@
       <c r="N18" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>20</v>
       </c>
@@ -1094,8 +1171,11 @@
       <c r="N19" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -1114,8 +1194,11 @@
       <c r="N20" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1134,8 +1217,11 @@
       <c r="N21" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1148,14 +1234,17 @@
       <c r="L22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1168,14 +1257,17 @@
       <c r="L23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1194,8 +1286,11 @@
       <c r="N24" s="9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1214,8 +1309,11 @@
       <c r="N25" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1234,8 +1332,11 @@
       <c r="N26" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1254,8 +1355,11 @@
       <c r="N27" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E28" s="5" t="s">
         <v>30</v>
       </c>
@@ -1272,8 +1376,11 @@
         <v>59</v>
       </c>
       <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>31</v>
       </c>
@@ -1287,8 +1394,11 @@
         <v>85</v>
       </c>
       <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>32</v>
       </c>
@@ -1305,8 +1415,11 @@
         <v>87</v>
       </c>
       <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>33</v>
       </c>
@@ -1319,8 +1432,11 @@
       <c r="L31" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>34</v>
       </c>
@@ -1333,8 +1449,11 @@
       <c r="L32" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>36</v>
       </c>
@@ -1353,8 +1472,11 @@
       <c r="N33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>39</v>
       </c>
@@ -1367,8 +1489,11 @@
       <c r="L34" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E35" s="5" t="s">
         <v>41</v>
       </c>
@@ -1381,8 +1506,11 @@
       <c r="L35" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E36" s="5" t="s">
         <v>43</v>
       </c>
@@ -1395,14 +1523,17 @@
       <c r="L36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="5" t="s">
         <v>93</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1415,11 +1546,14 @@
       <c r="L37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E38" s="5" t="s">
         <v>45</v>
       </c>
@@ -1432,8 +1566,11 @@
       <c r="L38" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>46</v>
       </c>
@@ -1449,8 +1586,11 @@
       <c r="M39" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>47</v>
       </c>
@@ -1466,8 +1606,11 @@
       <c r="M40" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>48</v>
       </c>
@@ -1483,8 +1626,11 @@
       <c r="M41" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>49</v>
       </c>
@@ -1500,8 +1646,11 @@
       <c r="M42" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>50</v>
       </c>
@@ -1517,8 +1666,11 @@
       <c r="M43" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>51</v>
       </c>
@@ -1531,8 +1683,11 @@
       <c r="L44" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>52</v>
       </c>
@@ -1545,8 +1700,11 @@
       <c r="L45" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>53</v>
       </c>
@@ -1559,8 +1717,11 @@
       <c r="L46" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>54</v>
       </c>
@@ -1573,8 +1734,11 @@
       <c r="L47" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>55</v>
       </c>
@@ -1587,8 +1751,11 @@
       <c r="L48" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O48" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>56</v>
       </c>
@@ -1601,8 +1768,11 @@
       <c r="L49" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O49" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E50" s="6" t="s">
         <v>57</v>
       </c>
@@ -1616,8 +1786,13 @@
       <c r="L50" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -1630,8 +1805,11 @@
       <c r="L51" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O51" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E52" s="6" t="s">
         <v>59</v>
       </c>
@@ -1644,2250 +1822,3618 @@
       <c r="L52" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>97</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L53" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L54" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>99</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L55" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>100</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L56" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>101</v>
+      </c>
+      <c r="O56" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L57" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>102</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L58" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>103</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L59" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O59" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L60" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O60" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L61" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O61" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L62" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O62" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L63" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="O63" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.2">
       <c r="L64" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O64" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L65" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O65" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L66" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O66" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L67" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O67" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L68" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O68" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L69" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O69" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L70" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O70" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L71" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O71" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L72" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O72" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L73" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O73" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L74" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O74" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L75" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O75" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L76" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O76" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L77" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O77" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L78" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O78" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L79" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O79" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L80" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O80" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L81" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O81" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L82" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O82" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L83" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O83" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L84" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O84" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L85" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O85" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L86" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O86" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L87" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O87" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L88" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O88" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L89" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O89" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L90" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O90" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L91" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O91" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L92" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O92" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L93" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O93" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L94" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O94" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L95" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O95" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L96" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O96" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L97" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O97" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L98" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O98" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L99" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O99" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L100" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O100" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L101" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O101" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L102" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O102" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L103" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O103" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L104" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O104" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L105" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O105" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L106" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O106" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L107" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O107" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L108" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O108" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L109" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O109" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L110" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O110" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L111" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O111" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L112" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O112" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L113" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O113" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L114" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O114" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L115" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O115" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L116" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O116" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L117" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O117" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L118" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O118" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L119" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O119" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L120" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O120" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L121" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O121" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L122" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O122" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L123" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O123" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L124" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="125" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O124" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L125" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O125" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L126" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="127" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O126" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L127" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="128" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O127" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L128" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="129" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O128" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L129" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="130" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O129" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L130" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="131" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O130" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L131" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="132" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O131" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L132" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O132" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L133" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="134" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O133" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L134" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="135" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O134" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L135" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O135" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L136" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="137" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O136" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L137" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O137" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L138" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="139" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O138" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L139" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="140" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O139" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L140" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="141" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O140" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L141" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="142" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O141" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L142" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O142" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L143" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="144" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O143" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L144" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O144" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L145" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O145" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L146" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="147" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O146" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L147" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O147" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L148" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O148" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L149" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="150" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O149" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L150" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O150" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L151" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O151" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L152" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="153" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O152" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L153" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O153" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L154" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O154" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L155" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="156" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O155" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L156" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O156" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L157" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O157" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L158" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="159" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O158" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L159" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="160" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O159" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L160" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="161" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O160" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L161" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="162" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O161" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L162" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="163" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O162" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L163" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="164" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O163" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L164" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="165" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O164" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L165" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="166" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O165" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L166" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="167" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O166" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L167" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="168" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O167" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L168" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="169" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O168" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L169" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="170" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O169" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L170" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="171" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O170" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="171" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L171" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="172" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O171" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L172" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="173" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O172" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L173" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="174" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O173" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L174" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="175" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O174" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L175" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="176" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O175" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L176" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O176" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L177" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O177" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L178" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O178" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L179" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O179" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L180" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O180" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L181" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O181" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L182" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O182" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L183" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O183" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L184" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O184" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L185" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O185" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L186" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O186" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L187" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O187" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="188" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L188" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O188" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L189" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O189" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="190" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L190" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O190" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L191" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O191" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="192" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L192" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O192" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="193" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L193" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O193" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L194" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O194" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="195" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L195" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O195" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="196" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L196" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O196" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L197" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O197" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L198" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O198" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L199" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O199" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L200" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O200" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="201" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L201" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O201" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L202" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O202" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="203" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L203" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O203" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="204" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L204" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O204" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L205" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O205" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L206" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O206" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L207" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O207" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L208" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O208" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L209" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O209" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="210" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L210" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O210" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="211" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L211" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O211" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L212" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O212" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L213" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O213" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L214" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O214" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="215" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L215" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O215" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L216" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O216" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L217" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O217" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L218" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O218" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="219" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L219" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O219" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="220" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L220" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O220" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L221" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O221" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L222" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O222" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L223" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O223" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L224" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O224" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L225" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O225" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L226" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O226" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="227" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L227" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O227" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L228" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O228" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="229" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L229" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O229" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L230" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O230" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L231" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O231" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L232" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O232" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="233" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L233" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O233" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="234" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L234" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O234" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="235" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L235" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O235" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="236" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L236" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O236" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="237" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L237" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O237" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="238" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L238" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O238" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="239" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L239" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O239" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L240" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O240" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="241" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L241" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O241" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="242" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L242" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O242" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L243" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O243" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="244" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L244" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O244" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="245" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L245" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O245" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="246" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L246" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O246" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="247" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L247" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O247" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="248" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L248" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O248" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="249" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L249" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O249" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="250" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L250" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O250" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="251" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L251" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O251" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="252" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L252" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O252" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="253" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L253" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O253" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L254" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O254" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="255" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L255" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O255" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="256" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L256" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O256" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="257" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L257" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O257" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="258" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L258" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O258" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="259" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L259" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O259" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="260" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L260" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O260" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="261" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L261" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O261" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="262" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L262" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O262" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="263" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L263" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O263" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="264" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L264" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O264" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L265" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O265" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="266" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L266" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O266" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="267" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L267" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O267" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="268" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L268" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O268" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="269" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L269" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O269" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="270" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L270" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O270" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="271" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L271" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O271" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="272" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L272" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O272" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="273" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L273" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O273" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="274" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L274" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O274" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L275" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O275" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="276" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L276" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O276" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L277" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O277" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="278" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L278" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O278" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L279" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O279" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="280" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L280" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O280" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="281" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L281" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O281" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="282" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L282" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O282" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L283" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O283" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L284" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O284" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L285" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O285" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="286" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L286" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O286" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L287" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O287" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="288" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L288" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O288" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="289" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L289" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O289" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="290" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L290" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O290" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="291" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L291" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O291" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="292" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L292" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O292" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="293" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L293" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O293" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L294" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O294" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="295" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L295" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O295" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L296" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O296" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="297" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L297" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O297" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="298" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L298" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O298" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="299" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L299" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O299" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="300" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L300" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O300" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="301" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L301" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O301" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="302" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L302" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O302" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="303" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L303" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O303" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="304" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L304" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O304" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="305" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L305" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O305" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="306" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L306" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O306" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="307" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L307" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O307" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L308" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O308" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L309" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O309" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="310" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L310" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O310" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="311" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L311" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O311" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="312" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L312" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O312" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="313" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L313" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O313" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="314" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L314" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O314" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="315" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L315" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O315" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L316" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O316" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="317" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L317" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O317" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="318" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L318" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O318" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="319" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L319" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O319" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="320" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L320" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O320" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="321" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L321" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O321" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="322" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L322" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O322" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="323" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L323" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O323" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="324" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L324" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O324" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="325" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L325" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O325" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="326" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L326" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O326" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="327" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L327" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O327" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="328" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L328" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O328" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="329" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L329" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O329" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L330" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O330" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="331" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L331" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O331" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="332" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L332" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O332" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="333" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L333" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O333" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="334" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L334" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O334" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="335" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L335" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O335" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="336" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L336" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O336" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L337" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O337" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L338" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O338" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L339" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O339" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="340" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L340" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O340" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="341" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L341" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O341" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="342" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L342" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O342" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="343" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L343" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O343" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L344" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O344" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="345" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L345" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O345" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="346" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L346" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O346" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="347" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L347" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O347" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="348" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L348" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O348" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="349" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L349" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O349" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="350" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L350" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O350" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="351" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L351" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O351" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="352" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L352" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O352" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L353" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O353" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="354" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L354" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O354" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="355" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L355" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O355" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="356" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L356" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O356" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="357" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L357" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O357" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="358" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L358" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O358" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="359" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L359" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O359" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="360" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L360" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O360" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="361" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L361" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O361" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="362" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L362" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O362" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="363" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L363" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O363" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L364" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O364" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="365" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L365" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O365" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L366" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O366" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="367" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L367" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O367" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="368" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L368" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O368" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="369" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L369" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O369" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="370" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L370" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O370" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="371" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L371" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O371" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="372" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L372" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O372" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="373" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L373" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O373" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="374" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L374" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O374" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="375" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L375" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O375" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="376" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L376" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O376" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="377" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L377" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O377" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="378" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L378" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O378" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="379" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L379" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O379" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="380" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L380" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O380" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="381" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L381" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O381" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="382" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L382" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O382" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="383" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L383" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O383" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="384" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L384" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O384" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="385" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L385" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O385" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="386" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L386" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O386" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="387" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L387" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O387" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="388" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L388" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O388" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L389" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O389" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="390" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L390" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O390" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="391" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L391" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O391" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="392" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L392" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O392" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="393" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L393" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O393" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="394" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L394" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O394" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="395" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L395" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O395" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="396" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L396" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O396" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="397" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L397" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O397" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L398" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O398" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="399" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L399" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O399" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="400" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L400" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="401" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O400" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="401" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L401" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="402" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O401" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="402" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L402" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="403" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O402" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="403" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L403" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="404" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O403" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="404" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L404" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="405" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O404" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="405" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L405" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="406" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O405" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="406" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L406" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="407" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O406" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="407" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L407" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="408" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O407" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="408" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L408" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="409" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O408" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="409" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L409" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="410" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O409" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="410" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L410" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="411" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O410" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="411" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L411" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="412" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O411" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="412" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L412" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="413" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O412" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="413" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L413" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="414" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O413" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="414" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L414" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="415" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O414" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="415" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L415" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="416" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O415" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="416" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L416" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="417" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O416" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="417" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L417" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="418" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O417" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="418" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L418" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="419" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O418" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="419" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L419" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="420" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O419" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="420" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L420" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="421" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O420" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="421" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L421" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="422" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O421" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="422" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L422" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="423" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O422" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="423" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L423" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="424" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O423" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="424" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L424" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="425" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O424" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="425" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L425" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="426" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O425" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="426" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L426" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="427" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O426" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="427" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L427" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="428" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O427" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="428" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L428" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="429" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O428" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="429" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L429" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="430" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O429" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="430" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L430" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="431" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O430" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="431" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L431" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="432" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O431" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="432" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L432" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="433" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O432" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="433" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L433" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="434" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O433" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="434" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L434" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="435" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O434" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="435" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L435" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="436" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O435" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="436" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L436" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="437" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O436" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="437" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L437" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="438" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O437" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="438" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L438" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="439" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O438" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="439" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L439" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="440" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O439" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="440" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L440" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="441" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O440" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="441" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L441" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="442" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O441" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="442" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L442" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="443" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O442" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="443" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L443" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="444" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O443" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="444" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L444" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="445" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O444" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="445" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L445" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="446" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O445" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="446" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L446" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="447" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O446" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="447" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L447" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="448" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O447" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="448" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L448" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="449" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O448" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="449" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L449" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="450" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O449" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="450" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L450" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="451" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O450" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="451" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L451" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="452" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O451" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="452" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L452" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="453" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O452" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L453" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="454" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O453" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="454" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L454" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="455" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O454" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="455" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L455" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="456" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O455" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="456" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L456" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="457" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O456" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="457" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L457" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="458" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O457" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="458" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L458" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="459" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O458" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="459" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L459" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="460" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O459" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="460" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L460" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="461" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O460" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="461" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L461" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="462" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O461" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="462" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L462" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="463" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O462" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="463" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L463" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="464" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O463" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="464" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L464" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="465" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O464" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="465" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L465" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="466" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O465" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="466" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L466" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="467" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O466" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="467" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L467" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="468" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O467" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="468" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L468" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="469" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O468" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="469" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L469" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="470" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O469" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="470" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L470" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="471" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O470" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="471" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L471" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="472" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O471" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="472" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L472" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="473" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O472" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="473" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L473" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="474" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O473" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="474" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L474" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="475" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O474" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="475" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L475" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="476" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O475" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="476" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L476" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="477" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O476" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="477" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L477" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="478" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O477" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="478" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L478" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="479" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O478" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="479" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L479" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="480" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O479" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="480" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L480" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="481" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O480" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="481" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L481" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="482" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O481" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="482" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L482" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="483" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O482" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="483" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L483" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="484" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O483" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="484" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L484" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="485" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O484" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="485" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L485" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="486" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O485" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="486" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L486" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="487" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O486" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="487" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L487" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="488" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O487" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="488" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L488" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="489" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O488" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="489" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L489" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="490" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O489" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="490" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L490" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="491" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O490" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="491" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L491" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="492" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O491" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="492" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L492" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="493" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O492" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="493" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L493" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="494" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O493" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="494" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L494" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="495" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O494" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="495" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L495" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="496" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O495" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="496" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L496" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="497" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O496" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="497" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L497" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="498" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O497" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="498" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L498" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="499" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O498" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="499" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L499" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="500" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="O499" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="500" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L500" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="O500" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:XFD1048576 A1:XFD21 A22:M23 O22:XFD23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A24:N1048576 A1:N21 A22:M23 O1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/driggs rebuild 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/driggs rebuild 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/380 tree service scrapes - zhe fetches kws 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B97C7-C54F-B648-BFAE-CEFEF1D056F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C724F7B-7055-4D4B-A3CD-9F9E34603811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{5BD8FC81-A424-9C46-A455-54312A2DC2FA}"/>
   </bookViews>
@@ -393,7 +393,7 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -472,6 +478,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +829,8 @@
   <dimension ref="E1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M45" sqref="M45"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1042,7 @@
       <c r="L13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="14" t="s">
         <v>64</v>
       </c>
       <c r="N13" s="9"/>
@@ -1466,12 +1475,6 @@
       <c r="L33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" t="s">
-        <v>83</v>
-      </c>
       <c r="O33" s="13" t="s">
         <v>85</v>
       </c>
@@ -1683,6 +1686,12 @@
       <c r="L44" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="M44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" t="s">
+        <v>83</v>
+      </c>
       <c r="O44" s="13" t="s">
         <v>85</v>
       </c>
@@ -5432,7 +5441,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:N1048576 A1:N21 A22:M23 O1:XFD1048576">
+  <conditionalFormatting sqref="A24:N32 A33:L33 A34:N1048576 A1:N21 A22:M23 O1:XFD1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
